--- a/Excel/battleUnitInit.xlsx
+++ b/Excel/battleUnitInit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>unitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -396,7 +400,7 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +416,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -428,6 +435,149 @@
       </c>
       <c r="E2">
         <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/battleUnitInit.xlsx
+++ b/Excel/battleUnitInit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DBD91-1ABD-4A2C-92F4-5F3A4E26F5A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +46,14 @@
     <t>power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>map001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,6 +102,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -145,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +185,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +237,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,6 +621,366 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-10</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>-10</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>-12</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>-12</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>-12</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>-12</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -601,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
